--- a/shared/ojb-resources-common/src/main/resources/service-specifications/Disposition_Reporting_Service/artifacts/service_model/information_model/Disposition_Report_IEPD/documentation/vermont/Vermont_Disposition_Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/service-specifications/Disposition_Reporting_Service/artifacts/service_model/information_model/Disposition_Report_IEPD/documentation/vermont/Vermont_Disposition_Mapping.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="655">
   <si>
     <t>BRISTOL P.D.</t>
   </si>
@@ -2010,6 +2010,9 @@
   </si>
   <si>
     <t>Need definition clarification ?</t>
+  </si>
+  <si>
+    <t>/exchange:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/ext:ChargeAugmentation/ext:FinalCharge/ext:ChargeAugmentation/ext:SexRegistryChargeIndicator</t>
   </si>
 </sst>
 </file>
@@ -2206,16 +2209,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2536,8 +2539,8 @@
   <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2568,7 +2571,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>581</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2582,7 +2585,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="12" t="s">
         <v>582</v>
       </c>
@@ -3144,10 +3147,10 @@
       <c r="B44" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="21" t="s">
         <v>603</v>
       </c>
     </row>
@@ -3158,8 +3161,8 @@
       <c r="B45" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
@@ -3168,8 +3171,8 @@
       <c r="B46" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -3315,10 +3318,10 @@
       <c r="B57" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="21" t="s">
         <v>604</v>
       </c>
     </row>
@@ -3329,8 +3332,8 @@
       <c r="B58" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
@@ -3339,8 +3342,8 @@
       <c r="B59" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
@@ -3363,10 +3366,10 @@
       <c r="B61" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="21" t="s">
         <v>605</v>
       </c>
     </row>
@@ -3377,8 +3380,8 @@
       <c r="B62" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
@@ -3387,8 +3390,8 @@
       <c r="B63" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
@@ -3758,10 +3761,10 @@
       <c r="B91" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="21" t="s">
         <v>610</v>
       </c>
     </row>
@@ -3772,8 +3775,8 @@
       <c r="B92" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
@@ -3782,8 +3785,8 @@
       <c r="B93" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="94" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
@@ -3903,7 +3906,7 @@
         <v>503</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>561</v>
+        <v>654</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">

--- a/shared/ojb-resources-common/src/main/resources/service-specifications/Disposition_Reporting_Service/artifacts/service_model/information_model/Disposition_Report_IEPD/documentation/vermont/Vermont_Disposition_Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/service-specifications/Disposition_Reporting_Service/artifacts/service_model/information_model/Disposition_Report_IEPD/documentation/vermont/Vermont_Disposition_Mapping.xlsx
@@ -36,7 +36,7 @@
     <sheet name="Sheet23" sheetId="29" r:id="rId27"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fields!$A$1:$D$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fields!$A$1:$D$124</definedName>
   </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="658">
   <si>
     <t>BRISTOL P.D.</t>
   </si>
@@ -2013,13 +2013,22 @@
   </si>
   <si>
     <t>/exchange:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/ext:ChargeAugmentation/ext:FinalCharge/ext:ChargeAugmentation/ext:SexRegistryChargeIndicator</t>
+  </si>
+  <si>
+    <t>True if charge is a probation violation, false otherwise.</t>
+  </si>
+  <si>
+    <t>NAME?</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/disp-ext:ChargeAugmentation/disp-ext:InitialCharge/disp-ext:ChargeAugmentation/disp-ext:IsProbationViolationOnOldCharge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2106,6 +2115,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2153,7 +2168,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2209,6 +2224,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2219,6 +2237,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2536,11 +2557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2571,7 +2592,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>581</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2585,7 +2606,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="12" t="s">
         <v>582</v>
       </c>
@@ -3147,10 +3168,10 @@
       <c r="B44" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="22" t="s">
         <v>603</v>
       </c>
     </row>
@@ -3161,8 +3182,8 @@
       <c r="B45" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
@@ -3171,8 +3192,8 @@
       <c r="B46" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -3318,10 +3339,10 @@
       <c r="B57" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="22" t="s">
         <v>604</v>
       </c>
     </row>
@@ -3332,8 +3353,8 @@
       <c r="B58" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
@@ -3342,8 +3363,8 @@
       <c r="B59" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
@@ -3366,10 +3387,10 @@
       <c r="B61" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="22" t="s">
         <v>605</v>
       </c>
     </row>
@@ -3380,8 +3401,8 @@
       <c r="B62" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
@@ -3390,8 +3411,8 @@
       <c r="B63" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
@@ -3543,790 +3564,804 @@
         <v>593</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:5" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D76" s="12" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+    <row r="77" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D77" s="16" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+    <row r="78" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B78" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+    <row r="79" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B79" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D79" s="12" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+    <row r="80" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B80" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="4" t="s">
+      <c r="D80" s="11"/>
+      <c r="E80" s="4" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+    <row r="81" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B81" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D81" s="12" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+    <row r="82" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B82" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D82" s="12" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+    <row r="83" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="4" t="s">
+      <c r="D83" s="11"/>
+      <c r="E83" s="4" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D85" s="13" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+    <row r="86" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B86" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D86" s="12" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
+    <row r="87" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B87" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E87" s="12" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+    <row r="88" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D88" s="13" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+    <row r="89" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B89" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D89" s="13" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+    <row r="90" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B90" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D90" s="13" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+    <row r="91" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B91" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D91" s="12" t="s">
         <v>611</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+        <v>433</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="93" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+    </row>
+    <row r="94" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B94" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-    </row>
-    <row r="94" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+    </row>
+    <row r="95" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B95" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E95" s="12" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+    <row r="96" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B96" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="4" t="s">
+      <c r="D96" s="9"/>
+      <c r="E96" s="4" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+    <row r="97" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B97" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C97" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D97" s="13" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+    <row r="98" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B98" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C98" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D98" s="12" t="s">
         <v>566</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>573</v>
       </c>
       <c r="D99" s="13" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D100" s="13" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="D101" s="12" t="s">
-        <v>560</v>
+      <c r="D101" s="13" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>501</v>
+        <v>449</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>654</v>
+        <v>560</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B104" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C104" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="D103" s="12" t="s">
+      <c r="D104" s="12" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
+    <row r="105" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="4" t="s">
+      <c r="D105" s="11"/>
+      <c r="E105" s="4" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>571</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>571</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B109" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C109" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D109" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E109" s="12" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+    <row r="110" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B110" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C110" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D110" s="12" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>493</v>
+        <v>219</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>506</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>616</v>
+        <v>567</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>469</v>
+        <v>220</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="D112" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>579</v>
+      <c r="D112" s="13" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>621</v>
+        <v>469</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>622</v>
+        <v>569</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>621</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>580</v>
+        <v>567</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>494</v>
+        <v>223</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>503</v>
       </c>
       <c r="D115" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D116" s="12" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
+    <row r="117" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B117" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C117" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="D116" s="12" t="s">
+      <c r="D117" s="12" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
+    <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D117" s="11"/>
-    </row>
-    <row r="118" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
+      <c r="D118" s="11"/>
+    </row>
+    <row r="119" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B119" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C119" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D119" s="12" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D119" s="11"/>
     </row>
     <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B121" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="D120" s="11"/>
-    </row>
-    <row r="121" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
+      <c r="D121" s="11"/>
+    </row>
+    <row r="122" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B122" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C122" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="D122" s="12" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B124" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C124" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="D124" s="13" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
-    </row>
     <row r="125" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="8"/>
+    </row>
+    <row r="126" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C126" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="D126" s="16" t="s">
         <v>625</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="D128" s="16" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
-    </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>633</v>
-      </c>
+      <c r="A129" s="8"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>637</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="D131" s="16" t="s">
+      <c r="D132" s="16" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
-    </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>638</v>
-      </c>
+      <c r="A133" s="8"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>122</v>
+        <v>636</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>637</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="D136" s="16" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
-    </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>643</v>
-      </c>
+      <c r="A137" s="8"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>647</v>
+        <v>642</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>637</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="D139" s="16" t="s">
+      <c r="D140" s="16" t="s">
         <v>646</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D123"/>
+  <autoFilter ref="A1:D124"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="D61:D63"/>
     <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="D92:D94"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="C92:C94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/shared/ojb-resources-common/src/main/resources/service-specifications/Disposition_Reporting_Service/artifacts/service_model/information_model/Disposition_Report_IEPD/documentation/vermont/Vermont_Disposition_Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/service-specifications/Disposition_Reporting_Service/artifacts/service_model/information_model/Disposition_Report_IEPD/documentation/vermont/Vermont_Disposition_Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="540" windowWidth="23940" windowHeight="10260"/>
+    <workbookView xWindow="120" yWindow="375" windowWidth="23940" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Fields" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="Sheet23" sheetId="29" r:id="rId27"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fields!$A$1:$D$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fields!$A$1:$D$134</definedName>
   </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="678">
   <si>
     <t>BRISTOL P.D.</t>
   </si>
@@ -497,24 +497,9 @@
     <t>COURTDIS</t>
   </si>
   <si>
-    <t>Crtdisin</t>
-  </si>
-  <si>
-    <t>CTDocketid</t>
-  </si>
-  <si>
-    <t>defdain</t>
-  </si>
-  <si>
     <t>defmoin</t>
   </si>
   <si>
-    <t>DEFMONTH</t>
-  </si>
-  <si>
-    <t>DEFYEAR</t>
-  </si>
-  <si>
     <t>Defyrin</t>
   </si>
   <si>
@@ -752,9 +737,6 @@
     <t>Field Name</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -992,9 +974,6 @@
     <t>MISSING/UNKNOWN</t>
   </si>
   <si>
-    <t>Days Sentence Deferred</t>
-  </si>
-  <si>
     <t>Months Sentence Deferred</t>
   </si>
   <si>
@@ -1496,9 +1475,6 @@
     <t>DO NOT USE</t>
   </si>
   <si>
-    <t>"Total number of counts filed for arraignment against that defendant that day"</t>
-  </si>
-  <si>
     <t>Docket Number</t>
   </si>
   <si>
@@ -1664,9 +1640,6 @@
     <t>Initial or Final Charge ?</t>
   </si>
   <si>
-    <t>/exchange:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseHearing/ext:CourtEventAugmentation/ext:ChargeCountFiled</t>
-  </si>
-  <si>
     <t>/exchange:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCourtEvent/ext:CourtEventAugmentation/ext:FailedToAppearIndicator</t>
   </si>
   <si>
@@ -1685,9 +1658,6 @@
     <t>/exchange:DispositionReport/j:Offense/ext:OffenseAugmentation/ext:FinalOffense/vt_codes:OffLevelCode</t>
   </si>
   <si>
-    <t>/exchange:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/ext:ChargeAugmentation/ext:FinalCharge/j:ChargeDisposition/ext:ChargeDispositionAugmentation/vt_codes:CourtDispCode</t>
-  </si>
-  <si>
     <t>/exchange:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/ext:ChargeAugmentation/ext:FinalCharge/j:ChargeDisposition/nc:DispositionDate/nc:Date</t>
   </si>
   <si>
@@ -1859,9 +1829,6 @@
     <t>/exchange:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/ext:ChargeAugmentation/ext:FinalCharge/j:ChargeSentence/j:SentenceCondition/nc:ConditionDisciplinaryAction/nc:DisciplinaryActionRestitution/ext:ObligationRequiredIndicator</t>
   </si>
   <si>
-    <t>/exchange:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/ext:ChargeAugmentation/ext:FinalCharge/j:ChargeSentence/j:SentenceDeferredTerm/j:TermDuration</t>
-  </si>
-  <si>
     <t>/exchange:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/ext:ChargeAugmentation/ext:FinalCharge/j:ChargeSentence/j:SentenceTerm/j:TermMaximumDuration</t>
   </si>
   <si>
@@ -2022,6 +1989,99 @@
   </si>
   <si>
     <t>/disp-doc:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/disp-ext:ChargeAugmentation/disp-ext:InitialCharge/disp-ext:ChargeAugmentation/disp-ext:IsProbationViolationOnOldCharge</t>
+  </si>
+  <si>
+    <t>Label/Description</t>
+  </si>
+  <si>
+    <t>Convicted</t>
+  </si>
+  <si>
+    <t>Probation Without Verdict</t>
+  </si>
+  <si>
+    <t>Acquitted</t>
+  </si>
+  <si>
+    <t>Dismissed</t>
+  </si>
+  <si>
+    <t>Civil Procedure</t>
+  </si>
+  <si>
+    <t>Off Calendar</t>
+  </si>
+  <si>
+    <t>Guilty But Mentally Ill</t>
+  </si>
+  <si>
+    <t>Transferred to Juvenile Court</t>
+  </si>
+  <si>
+    <t>Mistrial</t>
+  </si>
+  <si>
+    <t>Nolle Prosequi</t>
+  </si>
+  <si>
+    <t>Extradited</t>
+  </si>
+  <si>
+    <t>Not Disposition By Court</t>
+  </si>
+  <si>
+    <t>Enum Value</t>
+  </si>
+  <si>
+    <t>PWOV</t>
+  </si>
+  <si>
+    <t>NGRI</t>
+  </si>
+  <si>
+    <t>ACQ</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>GBMI</t>
+  </si>
+  <si>
+    <t>TTJC</t>
+  </si>
+  <si>
+    <t>MIST</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>EXTR</t>
+  </si>
+  <si>
+    <t>NDBC</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Not Guilty by Reason of Insanity</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/disp-ext:ChargeAugmentation/disp-ext:FinalCharge/j:ChargeDisposition/disp-ext:ChargeDispositionAugmentation/ojbc_disp_codes:CourtDispositionCode</t>
+  </si>
+  <si>
+    <t>enumeration value="1"</t>
+  </si>
+  <si>
+    <t>enumeration value="CONV"</t>
   </si>
 </sst>
 </file>
@@ -2168,7 +2228,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2227,6 +2287,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2237,9 +2309,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2557,11 +2626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2576,76 +2645,76 @@
   <sheetData>
     <row r="1" spans="1:5" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>234</v>
+        <v>647</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>581</v>
+      <c r="A2" s="24" t="s">
+        <v>571</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="12" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2653,11 +2722,11 @@
         <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2665,13 +2734,13 @@
         <v>119</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2679,13 +2748,13 @@
         <v>116</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2693,13 +2762,13 @@
         <v>117</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2707,13 +2776,13 @@
         <v>118</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2721,11 +2790,11 @@
         <v>119</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="4" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2733,13 +2802,13 @@
         <v>120</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2747,11 +2816,11 @@
         <v>121</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="4" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2759,13 +2828,13 @@
         <v>122</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2773,11 +2842,11 @@
         <v>123</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2785,13 +2854,13 @@
         <v>124</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2799,13 +2868,13 @@
         <v>125</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2813,13 +2882,13 @@
         <v>126</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2827,13 +2896,13 @@
         <v>127</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2841,11 +2910,11 @@
         <v>128</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2853,13 +2922,13 @@
         <v>129</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2867,13 +2936,13 @@
         <v>130</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2881,13 +2950,13 @@
         <v>131</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2895,13 +2964,13 @@
         <v>132</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2909,27 +2978,27 @@
         <v>133</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2937,11 +3006,11 @@
         <v>134</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="4" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2949,13 +3018,13 @@
         <v>135</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2963,13 +3032,13 @@
         <v>137</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2977,13 +3046,13 @@
         <v>136</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2991,11 +3060,11 @@
         <v>138</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="4" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3003,16 +3072,16 @@
         <v>139</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3020,13 +3089,13 @@
         <v>140</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3034,13 +3103,13 @@
         <v>141</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3048,13 +3117,13 @@
         <v>142</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3062,13 +3131,13 @@
         <v>143</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3076,11 +3145,11 @@
         <v>144</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="4" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3088,11 +3157,11 @@
         <v>145</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="4" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3100,13 +3169,13 @@
         <v>146</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3114,11 +3183,11 @@
         <v>147</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -3126,1242 +3195,1390 @@
         <v>148</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <v>2</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>3</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <v>4</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>5</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>6</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
+        <v>7</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="23">
+        <v>8</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
+        <v>9</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>10</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>11</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>12</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <v>66</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>88</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
+        <v>99</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="B57" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="B58" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="D44" s="22" t="s">
+      <c r="C59" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-    </row>
-    <row r="46" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+    <row r="62" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-    </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="B62" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="12" t="s">
+      <c r="B63" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-    </row>
-    <row r="59" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-    </row>
-    <row r="60" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-    </row>
-    <row r="63" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>344</v>
+        <v>156</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>346</v>
+        <v>157</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>505</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>353</v>
+        <v>506</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>547</v>
+        <v>331</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+    </row>
+    <row r="69" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+    </row>
+    <row r="70" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+    </row>
+    <row r="73" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+    </row>
+    <row r="74" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>499</v>
+        <v>337</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>553</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
-        <v>656</v>
+        <v>563</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>500</v>
+        <v>346</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>555</v>
+        <v>557</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D93" s="11"/>
+      <c r="E93" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="B95" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="B96" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+      <c r="B97" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="D86" s="12" t="s">
+      <c r="C98" s="12" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-    </row>
-    <row r="94" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-    </row>
-    <row r="95" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>566</v>
+      <c r="D98" s="13" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>491</v>
+        <v>192</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>492</v>
+        <v>193</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+    </row>
+    <row r="104" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>528</v>
+        <v>428</v>
+      </c>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+    </row>
+    <row r="105" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="4" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>592</v>
+        <v>202</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>483</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>506</v>
+        <v>441</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>493</v>
+        <v>205</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>616</v>
+        <v>561</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>579</v>
+        <v>643</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>621</v>
+        <v>443</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>580</v>
+        <v>565</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D115" s="11"/>
+      <c r="E115" s="4" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>494</v>
+        <v>209</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>495</v>
+        <v>210</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>446</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D118" s="11"/>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="119" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>497</v>
+        <v>212</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>582</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="D119" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B120" s="4" t="s">
+      <c r="D120" s="12" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="D120" s="11"/>
-    </row>
-    <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="D121" s="11"/>
+      <c r="C121" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="122" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>502</v>
+        <v>217</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>610</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="D124" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D128" s="11"/>
+    </row>
+    <row r="129" spans="1:4" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D131" s="11"/>
+    </row>
+    <row r="132" spans="1:4" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+    </row>
+    <row r="136" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D137" s="16" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
-    </row>
-    <row r="126" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="D130" s="16" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="D136" s="16" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>645</v>
-      </c>
+      <c r="A139" s="8"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>644</v>
+        <v>619</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>626</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>646</v>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D124"/>
-  <mergeCells count="9">
+  <autoFilter ref="A1:D134"/>
+  <mergeCells count="7">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C102:C104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -4391,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4399,7 +4616,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4407,7 +4624,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4415,7 +4632,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4423,7 +4640,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4431,7 +4648,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4439,7 +4656,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4447,7 +4664,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4455,7 +4672,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4463,7 +4680,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4471,7 +4688,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4479,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4487,7 +4704,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4495,7 +4712,7 @@
         <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4503,7 +4720,7 @@
         <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4531,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4562,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4570,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4578,7 +4795,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4586,7 +4803,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4594,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4602,7 +4819,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4610,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4618,7 +4835,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4626,7 +4843,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4634,7 +4851,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4642,7 +4859,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4650,7 +4867,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4658,7 +4875,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4666,7 +4883,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4674,7 +4891,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4682,7 +4899,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4690,7 +4907,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4718,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4757,7 +4974,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4765,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4773,7 +4990,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4781,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4789,7 +5006,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4797,7 +5014,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4805,7 +5022,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4813,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4844,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4852,7 +5069,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4860,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4868,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4876,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4907,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4915,7 +5132,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4923,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4931,7 +5148,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4939,7 +5156,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4947,7 +5164,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4955,7 +5172,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4963,7 +5180,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4991,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4999,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5030,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5038,7 +5255,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5046,7 +5263,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5054,7 +5271,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5062,7 +5279,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5070,7 +5287,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5078,7 +5295,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5086,7 +5303,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5117,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5125,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5133,7 +5350,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5141,7 +5358,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5149,7 +5366,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5157,7 +5374,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -6163,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6171,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6179,7 +6396,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6187,7 +6404,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6195,7 +6412,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6203,7 +6420,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6211,7 +6428,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6219,7 +6436,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6227,7 +6444,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6255,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6263,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6291,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6299,7 +6516,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -6330,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6338,7 +6555,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6346,7 +6563,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6354,7 +6571,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6362,7 +6579,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6370,7 +6587,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6378,7 +6595,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6386,7 +6603,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6394,7 +6611,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6402,7 +6619,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6410,7 +6627,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6418,7 +6635,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6426,7 +6643,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6434,7 +6651,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6442,7 +6659,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6450,7 +6667,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6458,7 +6675,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6466,7 +6683,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6474,7 +6691,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6482,7 +6699,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6490,7 +6707,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6498,7 +6715,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6506,7 +6723,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6514,7 +6731,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6522,7 +6739,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6530,7 +6747,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6538,7 +6755,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6546,7 +6763,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -6554,7 +6771,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -6562,7 +6779,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -6570,7 +6787,7 @@
         <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -6578,7 +6795,7 @@
         <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6586,7 +6803,7 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6594,7 +6811,7 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -6625,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6633,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6641,7 +6858,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6649,7 +6866,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6657,7 +6874,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6665,7 +6882,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6673,7 +6890,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6681,7 +6898,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6689,7 +6906,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6728,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6736,7 +6953,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6744,7 +6961,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6752,7 +6969,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6760,7 +6977,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6768,7 +6985,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6776,7 +6993,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6784,7 +7001,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6792,7 +7009,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6800,7 +7017,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6808,7 +7025,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6816,7 +7033,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6824,7 +7041,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6832,7 +7049,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -6863,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6871,7 +7088,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6879,7 +7096,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6887,7 +7104,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6895,7 +7112,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6903,7 +7120,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6911,7 +7128,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6919,7 +7136,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6927,7 +7144,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6935,7 +7152,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6943,7 +7160,7 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6951,7 +7168,7 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6959,7 +7176,7 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6967,7 +7184,7 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -7016,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7024,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7032,7 +7249,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7065,7 +7282,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7073,7 +7290,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7081,7 +7298,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7089,7 +7306,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7097,7 +7314,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7105,7 +7322,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7113,7 +7330,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7121,7 +7338,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7129,7 +7346,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7137,7 +7354,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7145,7 +7362,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7153,7 +7370,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7161,7 +7378,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7169,7 +7386,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7177,7 +7394,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7185,7 +7402,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7193,7 +7410,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7201,7 +7418,7 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -7233,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7241,7 +7458,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7249,7 +7466,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7257,7 +7474,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7265,7 +7482,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7273,7 +7490,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7281,7 +7498,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7289,7 +7506,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7297,7 +7514,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7305,7 +7522,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7313,7 +7530,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7321,7 +7538,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7329,7 +7546,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7337,7 +7554,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7345,7 +7562,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7353,7 +7570,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7392,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7400,7 +7617,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7408,7 +7625,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7416,7 +7633,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -7447,7 +7664,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7455,7 +7672,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7463,7 +7680,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7471,7 +7688,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7479,7 +7696,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7487,7 +7704,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7495,7 +7712,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7503,7 +7720,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7511,7 +7728,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7519,7 +7736,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7527,7 +7744,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7535,7 +7752,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7543,7 +7760,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7551,7 +7768,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7559,7 +7776,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7567,7 +7784,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7575,7 +7792,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7583,7 +7800,7 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -7614,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7622,7 +7839,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7630,7 +7847,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7661,7 +7878,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7669,7 +7886,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7677,7 +7894,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/shared/ojb-resources-common/src/main/resources/service-specifications/Disposition_Reporting_Service/artifacts/service_model/information_model/Disposition_Report_IEPD/documentation/vermont/Vermont_Disposition_Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/service-specifications/Disposition_Reporting_Service/artifacts/service_model/information_model/Disposition_Report_IEPD/documentation/vermont/Vermont_Disposition_Mapping.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="680">
   <si>
     <t>BRISTOL P.D.</t>
   </si>
@@ -1688,9 +1688,6 @@
     <t>/exchange:DispositionReport/nc:Case/ext:CaseAugmentation/vt_codes:PTStatCode</t>
   </si>
   <si>
-    <t>/exchange:DispositionReport/j:Subject/nc:RoleOfPerson/vt_codes:RaceCode</t>
-  </si>
-  <si>
     <t>/exchange:DispositionReport/nc:Case/ext:CaseAugmentation/ext:OriginalChargeAmendedIndicator</t>
   </si>
   <si>
@@ -2082,6 +2079,15 @@
   </si>
   <si>
     <t>enumeration value="CONV"</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/j:Subject/nc:RoleOfPerson/j:PersonRaceCode</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/disp-ext:ChargeAugmentation/disp-ext:FinalCharge/j:ChargeSentence/j:SentenceTerm/disp-ext:SentenceTermAugmentation/disp-ext:RecidivismEligibilityDate/nc:Date</t>
+  </si>
+  <si>
+    <t>Recidivism Eligibilty Date</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2234,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2298,6 +2304,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2626,11 +2638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2648,7 +2660,7 @@
         <v>228</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>229</v>
@@ -2661,43 +2673,43 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C3" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="12" t="s">
-        <v>572</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>575</v>
-      </c>
       <c r="C4" s="13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2708,13 +2720,13 @@
         <v>338</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2737,7 +2749,7 @@
         <v>499</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>508</v>
@@ -2751,7 +2763,7 @@
         <v>500</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>509</v>
@@ -2765,7 +2777,7 @@
         <v>501</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>510</v>
@@ -2779,7 +2791,7 @@
         <v>502</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>511</v>
@@ -2805,7 +2817,7 @@
         <v>232</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>512</v>
@@ -2831,7 +2843,7 @@
         <v>236</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>518</v>
@@ -2857,7 +2869,7 @@
         <v>479</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>514</v>
@@ -2871,7 +2883,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>515</v>
@@ -2885,7 +2897,7 @@
         <v>480</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>532</v>
@@ -2899,7 +2911,7 @@
         <v>256</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>533</v>
@@ -2925,7 +2937,7 @@
         <v>257</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>472</v>
@@ -2939,7 +2951,7 @@
         <v>258</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>516</v>
@@ -2953,7 +2965,7 @@
         <v>503</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>473</v>
@@ -2967,7 +2979,7 @@
         <v>259</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>523</v>
@@ -2981,7 +2993,7 @@
         <v>260</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>525</v>
@@ -2995,7 +3007,7 @@
         <v>362</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>542</v>
@@ -3010,7 +3022,7 @@
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3021,7 +3033,7 @@
         <v>261</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>524</v>
@@ -3035,7 +3047,7 @@
         <v>283</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>526</v>
@@ -3049,7 +3061,7 @@
         <v>278</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>527</v>
@@ -3075,7 +3087,7 @@
         <v>284</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>528</v>
@@ -3092,7 +3104,7 @@
         <v>285</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>517</v>
@@ -3106,7 +3118,7 @@
         <v>286</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>534</v>
@@ -3120,7 +3132,7 @@
         <v>287</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>539</v>
@@ -3134,7 +3146,7 @@
         <v>289</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>535</v>
@@ -3161,7 +3173,7 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3172,10 +3184,10 @@
         <v>290</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3198,24 +3210,24 @@
         <v>292</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="D42" s="22" t="s">
         <v>676</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3223,13 +3235,13 @@
         <v>2</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C43" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="D43" s="22" t="s">
         <v>660</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3237,13 +3249,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3251,13 +3263,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3265,13 +3277,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3279,13 +3291,13 @@
         <v>6</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3293,13 +3305,13 @@
         <v>7</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3307,13 +3319,13 @@
         <v>8</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3321,13 +3333,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3335,13 +3347,13 @@
         <v>10</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3349,13 +3361,13 @@
         <v>11</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3366,7 +3378,7 @@
         <v>386</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>304</v>
@@ -3377,13 +3389,13 @@
         <v>66</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3391,13 +3403,13 @@
         <v>88</v>
       </c>
       <c r="B55" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>660</v>
-      </c>
       <c r="D55" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3408,10 +3420,10 @@
         <v>330</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3423,7 +3435,7 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3435,7 +3447,7 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3443,7 +3455,7 @@
         <v>151</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>536</v>
@@ -3460,7 +3472,7 @@
         <v>495</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -3468,10 +3480,10 @@
         <v>153</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3485,10 +3497,10 @@
         <v>495</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3500,7 +3512,7 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -3511,13 +3523,13 @@
         <v>313</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D64" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>587</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3528,13 +3540,13 @@
         <v>505</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>531</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -3548,7 +3560,7 @@
         <v>495</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3558,11 +3570,11 @@
       <c r="B67" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C67" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>593</v>
+      <c r="C67" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3572,8 +3584,8 @@
       <c r="B68" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
     </row>
     <row r="69" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
@@ -3582,8 +3594,8 @@
       <c r="B69" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
     </row>
     <row r="70" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
@@ -3593,10 +3605,10 @@
         <v>333</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3606,11 +3618,11 @@
       <c r="B71" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D71" s="26" t="s">
-        <v>594</v>
+      <c r="D71" s="28" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3620,8 +3632,8 @@
       <c r="B72" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
     </row>
     <row r="73" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
@@ -3630,8 +3642,8 @@
       <c r="B73" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
     </row>
     <row r="74" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
@@ -3641,10 +3653,10 @@
         <v>337</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -3655,7 +3667,7 @@
         <v>339</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>538</v>
@@ -3669,7 +3681,7 @@
         <v>346</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>513</v>
@@ -3683,7 +3695,7 @@
         <v>347</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>537</v>
@@ -3697,10 +3709,10 @@
         <v>348</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3711,10 +3723,10 @@
         <v>349</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3737,7 +3749,7 @@
         <v>355</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>540</v>
@@ -3760,7 +3772,7 @@
         <v>175</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>541</v>
@@ -3780,21 +3792,21 @@
         <v>543</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>495</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -3805,7 +3817,7 @@
         <v>492</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>544</v>
@@ -3822,7 +3834,7 @@
         <v>495</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3844,7 +3856,7 @@
         <v>371</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>545</v>
@@ -3870,10 +3882,10 @@
         <v>378</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>546</v>
+        <v>556</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3887,7 +3899,7 @@
         <v>495</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3913,7 +3925,7 @@
         <v>495</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -3924,10 +3936,10 @@
         <v>389</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3938,10 +3950,10 @@
         <v>482</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3952,7 +3964,7 @@
         <v>497</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3960,10 +3972,10 @@
         <v>191</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -3974,10 +3986,10 @@
         <v>392</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3988,10 +4000,10 @@
         <v>393</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -4002,10 +4014,10 @@
         <v>425</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4015,11 +4027,11 @@
       <c r="B102" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C102" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="D102" s="26" t="s">
-        <v>599</v>
+      <c r="C102" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4029,8 +4041,8 @@
       <c r="B103" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
     </row>
     <row r="104" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
@@ -4039,8 +4051,8 @@
       <c r="B104" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
     </row>
     <row r="105" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
@@ -4050,7 +4062,7 @@
         <v>429</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4073,7 +4085,7 @@
         <v>430</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D107" s="13" t="s">
         <v>519</v>
@@ -4087,10 +4099,10 @@
         <v>431</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -4101,10 +4113,10 @@
         <v>483</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -4115,10 +4127,10 @@
         <v>484</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -4129,10 +4141,10 @@
         <v>441</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -4143,10 +4155,10 @@
         <v>442</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -4160,7 +4172,7 @@
         <v>495</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -4171,10 +4183,10 @@
         <v>443</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4197,7 +4209,7 @@
         <v>445</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>520</v>
@@ -4211,7 +4223,7 @@
         <v>446</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>521</v>
@@ -4225,7 +4237,7 @@
         <v>447</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>522</v>
@@ -4236,16 +4248,16 @@
         <v>212</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>495</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4256,10 +4268,10 @@
         <v>475</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -4270,10 +4282,10 @@
         <v>498</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -4284,10 +4296,10 @@
         <v>485</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -4298,13 +4310,13 @@
         <v>462</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -4312,13 +4324,13 @@
         <v>217</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="D124" s="16" t="s">
         <v>610</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -4332,7 +4344,7 @@
         <v>530</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="126" spans="1:5" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -4346,7 +4358,7 @@
         <v>495</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -4357,10 +4369,10 @@
         <v>487</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4380,10 +4392,10 @@
         <v>489</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4412,7 +4424,7 @@
         <v>469</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>521</v>
@@ -4426,10 +4438,10 @@
         <v>470</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4440,24 +4452,32 @@
         <v>494</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="136" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4465,15 +4485,15 @@
         <v>122</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4481,29 +4501,29 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4511,13 +4531,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C144" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="C144" s="16" t="s">
+      <c r="D144" s="16" t="s">
         <v>626</v>
-      </c>
-      <c r="D144" s="16" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4525,15 +4545,15 @@
         <v>122</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="D146" s="16" t="s">
         <v>629</v>
-      </c>
-      <c r="D146" s="16" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4541,32 +4561,37 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="D148" s="16" t="s">
         <v>631</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="D148" s="16" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="25" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
